--- a/BalanceSheet/TEL_bal.xlsx
+++ b/BalanceSheet/TEL_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-67000000.0</v>
+        <v>2134000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-145000000.0</v>
+        <v>2066000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>253000000.0</v>
+        <v>1950000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-191000000.0</v>
+        <v>2227000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>25000000.0</v>
+        <v>2001000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2003000000.0</v>
@@ -2234,19 +2234,19 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>161000000.0</v>
+        <v>1793000000.0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>349000000.0</v>
+        <v>1629000000.0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1000000.0</v>
+        <v>1276000000.0</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-130000000.0</v>
+        <v>1271000000.0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-45000000.0</v>
+        <v>1390000000.0</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>1433000000.0</v>
@@ -3352,19 +3352,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-6000000.0</v>
+        <v>-2064000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-42000000.0</v>
+        <v>-2054000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>76000000.0</v>
+        <v>-2035000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>114000000.0</v>
+        <v>-2125000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>-49000000.0</v>
+        <v>-2256000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>142000000.0</v>
